--- a/список.xlsx
+++ b/список.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve">№
 пп</t>
@@ -85,76 +85,151 @@
     <t xml:space="preserve">сош № 7</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296094</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 9</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296092</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 10</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/294462</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 11</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296198</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 12</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296132</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 13</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296117</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 14</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296182</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 15</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296147</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 16</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296156</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 17</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296197</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 18</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296154</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 19</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296126</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 20</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296161</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 21</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296155</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 22</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296166</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 23</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296178</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 24</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296158</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 25</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296160</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 26</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296179</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 27</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296185</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 28</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296122</t>
+  </si>
+  <si>
     <t xml:space="preserve">сош № 29</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296121</t>
+  </si>
+  <si>
     <t>ДДТ</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296130</t>
+  </si>
+  <si>
     <t xml:space="preserve">Спортивная школа</t>
   </si>
   <si>
+    <t>https://bus.gov.ru/info-card/296080</t>
+  </si>
+  <si>
     <t>ЦТЭК</t>
+  </si>
+  <si>
+    <t>https://bus.gov.ru/info-card/296212</t>
   </si>
   <si>
     <t>ЦДО</t>
@@ -249,7 +324,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,6 +357,9 @@
     </xf>
     <xf fontId="3" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,6 +898,8 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" s="5" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -827,6 +907,8 @@
       <c r="C2" s="2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="7">
@@ -840,6 +922,8 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="7"/>
@@ -849,6 +933,8 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="7"/>
@@ -858,6 +944,8 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="7"/>
@@ -867,6 +955,8 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="7"/>
@@ -876,6 +966,8 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="7"/>
@@ -885,6 +977,8 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="7"/>
@@ -894,6 +988,8 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="7">
@@ -907,6 +1003,8 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="7"/>
@@ -916,6 +1014,8 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="7"/>
@@ -925,6 +1025,8 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="7"/>
@@ -934,6 +1036,8 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="7"/>
@@ -943,6 +1047,8 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="7"/>
@@ -952,6 +1058,8 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="7"/>
@@ -961,6 +1069,8 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="7">
@@ -974,6 +1084,8 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="7"/>
@@ -983,6 +1095,8 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="7"/>
@@ -992,6 +1106,8 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="7"/>
@@ -1001,6 +1117,8 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="7"/>
@@ -1010,6 +1128,8 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="7"/>
@@ -1019,6 +1139,8 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="7"/>
@@ -1028,6 +1150,8 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="7">
@@ -1041,6 +1165,8 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="7"/>
@@ -1050,6 +1176,8 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="7"/>
@@ -1059,6 +1187,8 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="7"/>
@@ -1068,6 +1198,8 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="7"/>
@@ -1077,6 +1209,8 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="7"/>
@@ -1086,6 +1220,8 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="7"/>
@@ -1095,6 +1231,8 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="7">
@@ -1108,6 +1246,8 @@
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="7"/>
@@ -1117,6 +1257,8 @@
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="7"/>
@@ -1126,6 +1268,8 @@
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="7"/>
@@ -1135,6 +1279,8 @@
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="7"/>
@@ -1144,6 +1290,8 @@
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="7"/>
@@ -1153,6 +1301,8 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="7"/>
@@ -1162,6 +1312,8 @@
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="7">
@@ -1175,6 +1327,8 @@
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="7"/>
@@ -1184,6 +1338,8 @@
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="7"/>
@@ -1193,6 +1349,8 @@
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="7"/>
@@ -1202,6 +1360,8 @@
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="7"/>
@@ -1211,6 +1371,8 @@
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="7"/>
@@ -1220,6 +1382,8 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="7"/>
@@ -1229,6 +1393,8 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="7">
@@ -1242,6 +1408,8 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A46" s="7"/>
@@ -1251,6 +1419,8 @@
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A47" s="7"/>
@@ -1260,6 +1430,8 @@
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A48" s="7"/>
@@ -1269,6 +1441,8 @@
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="7"/>
@@ -1278,6 +1452,8 @@
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="7"/>
@@ -1287,6 +1463,8 @@
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A51" s="7"/>
@@ -1296,17 +1474,22 @@
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="7">
         <v>8</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C52" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52"/>
+        <v>24</v>
+      </c>
       <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="7"/>
@@ -1314,8 +1497,9 @@
       <c r="C53" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D53"/>
       <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="7"/>
@@ -1323,8 +1507,9 @@
       <c r="C54" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D54"/>
       <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="7"/>
@@ -1332,8 +1517,9 @@
       <c r="C55" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D55"/>
       <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="7"/>
@@ -1341,8 +1527,9 @@
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D56"/>
       <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="7"/>
@@ -1350,8 +1537,9 @@
       <c r="C57" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D57"/>
       <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="7"/>
@@ -1359,19 +1547,23 @@
       <c r="C58" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D58"/>
       <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="7">
         <v>9</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C59" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59"/>
+        <v>26</v>
+      </c>
       <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="7"/>
@@ -1379,8 +1571,9 @@
       <c r="C60" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D60"/>
       <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="7"/>
@@ -1388,8 +1581,9 @@
       <c r="C61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D61"/>
       <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="7"/>
@@ -1397,8 +1591,9 @@
       <c r="C62" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D62"/>
       <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="7"/>
@@ -1406,8 +1601,9 @@
       <c r="C63" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D63"/>
       <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="7"/>
@@ -1415,8 +1611,9 @@
       <c r="C64" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D64"/>
       <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="7"/>
@@ -1424,19 +1621,23 @@
       <c r="C65" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D65"/>
       <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="7">
         <v>10</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C66" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66"/>
+        <v>28</v>
+      </c>
       <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="7"/>
@@ -1444,8 +1645,9 @@
       <c r="C67" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D67"/>
       <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="7"/>
@@ -1453,8 +1655,9 @@
       <c r="C68" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D68"/>
       <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="7"/>
@@ -1462,8 +1665,9 @@
       <c r="C69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D69"/>
       <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="7"/>
@@ -1471,8 +1675,9 @@
       <c r="C70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D70"/>
       <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="7"/>
@@ -1480,8 +1685,9 @@
       <c r="C71" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D71"/>
       <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="7"/>
@@ -1489,19 +1695,23 @@
       <c r="C72" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D72"/>
       <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="7">
         <v>11</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="C73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73"/>
+        <v>30</v>
+      </c>
       <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="7"/>
@@ -1509,8 +1719,9 @@
       <c r="C74" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D74"/>
       <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="7"/>
@@ -1518,8 +1729,9 @@
       <c r="C75" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D75"/>
       <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="7"/>
@@ -1527,8 +1739,9 @@
       <c r="C76" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D76"/>
       <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="7"/>
@@ -1536,8 +1749,9 @@
       <c r="C77" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D77"/>
       <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="7"/>
@@ -1545,8 +1759,9 @@
       <c r="C78" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D78"/>
       <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="7"/>
@@ -1554,19 +1769,23 @@
       <c r="C79" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D79"/>
       <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="7">
         <v>12</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="C80" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80"/>
+        <v>32</v>
+      </c>
       <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="7"/>
@@ -1574,8 +1793,9 @@
       <c r="C81" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D81"/>
       <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="7"/>
@@ -1583,8 +1803,9 @@
       <c r="C82" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D82"/>
       <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="7"/>
@@ -1592,8 +1813,9 @@
       <c r="C83" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D83"/>
       <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="7"/>
@@ -1601,8 +1823,9 @@
       <c r="C84" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D84"/>
       <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="7"/>
@@ -1610,8 +1833,9 @@
       <c r="C85" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D85"/>
       <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="7"/>
@@ -1619,19 +1843,23 @@
       <c r="C86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D86"/>
       <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="7">
         <v>13</v>
       </c>
-      <c r="B87" s="9"/>
+      <c r="B87" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="C87" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87"/>
+        <v>34</v>
+      </c>
       <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="7"/>
@@ -1639,8 +1867,9 @@
       <c r="C88" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D88"/>
       <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="7"/>
@@ -1648,8 +1877,9 @@
       <c r="C89" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D89"/>
       <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="7"/>
@@ -1657,8 +1887,9 @@
       <c r="C90" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D90"/>
       <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="7"/>
@@ -1666,8 +1897,9 @@
       <c r="C91" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D91"/>
       <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="7"/>
@@ -1675,8 +1907,9 @@
       <c r="C92" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D92"/>
       <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="7"/>
@@ -1684,19 +1917,23 @@
       <c r="C93" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D93"/>
       <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="7">
         <v>14</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="C94" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94"/>
+        <v>36</v>
+      </c>
       <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="7"/>
@@ -1704,8 +1941,9 @@
       <c r="C95" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D95"/>
       <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="7"/>
@@ -1713,8 +1951,9 @@
       <c r="C96" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D96"/>
       <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="7"/>
@@ -1722,8 +1961,9 @@
       <c r="C97" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D97"/>
       <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="7"/>
@@ -1731,8 +1971,9 @@
       <c r="C98" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D98"/>
       <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="7"/>
@@ -1740,8 +1981,9 @@
       <c r="C99" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D99"/>
       <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="7"/>
@@ -1749,19 +1991,23 @@
       <c r="C100" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D100"/>
       <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="7">
         <v>15</v>
       </c>
-      <c r="B101" s="9"/>
+      <c r="B101" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="C101" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D101"/>
+        <v>38</v>
+      </c>
       <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="7"/>
@@ -1769,8 +2015,9 @@
       <c r="C102" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D102"/>
       <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="7"/>
@@ -1778,8 +2025,9 @@
       <c r="C103" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D103"/>
       <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="7"/>
@@ -1787,8 +2035,9 @@
       <c r="C104" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D104"/>
       <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="7"/>
@@ -1796,8 +2045,9 @@
       <c r="C105" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D105"/>
       <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="7"/>
@@ -1805,8 +2055,9 @@
       <c r="C106" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D106"/>
       <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="7"/>
@@ -1814,19 +2065,23 @@
       <c r="C107" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D107"/>
       <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="7">
         <v>16</v>
       </c>
-      <c r="B108" s="8"/>
+      <c r="B108" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C108" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D108"/>
+        <v>40</v>
+      </c>
       <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="7"/>
@@ -1834,8 +2089,9 @@
       <c r="C109" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D109"/>
       <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="7"/>
@@ -1843,8 +2099,9 @@
       <c r="C110" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D110"/>
       <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="7"/>
@@ -1852,8 +2109,9 @@
       <c r="C111" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D111"/>
       <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="7"/>
@@ -1861,8 +2119,9 @@
       <c r="C112" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D112"/>
       <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="7"/>
@@ -1870,8 +2129,9 @@
       <c r="C113" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D113"/>
       <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="7"/>
@@ -1879,19 +2139,23 @@
       <c r="C114" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D114"/>
       <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="7">
         <v>17</v>
       </c>
-      <c r="B115" s="9"/>
+      <c r="B115" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="C115" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D115"/>
+        <v>42</v>
+      </c>
       <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="7"/>
@@ -1899,8 +2163,9 @@
       <c r="C116" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D116"/>
       <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="7"/>
@@ -1908,8 +2173,9 @@
       <c r="C117" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D117"/>
       <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="7"/>
@@ -1917,8 +2183,9 @@
       <c r="C118" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D118"/>
       <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="7"/>
@@ -1926,8 +2193,9 @@
       <c r="C119" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D119"/>
       <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="7"/>
@@ -1935,8 +2203,9 @@
       <c r="C120" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D120"/>
       <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="7"/>
@@ -1944,19 +2213,23 @@
       <c r="C121" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D121"/>
       <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="7">
         <v>18</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="C122" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122"/>
+        <v>44</v>
+      </c>
       <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="7"/>
@@ -1964,8 +2237,9 @@
       <c r="C123" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D123"/>
       <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="7"/>
@@ -1973,8 +2247,9 @@
       <c r="C124" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D124"/>
       <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="7"/>
@@ -1982,8 +2257,9 @@
       <c r="C125" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D125"/>
       <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="7"/>
@@ -1991,8 +2267,9 @@
       <c r="C126" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D126"/>
       <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="7"/>
@@ -2000,8 +2277,9 @@
       <c r="C127" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D127"/>
       <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="7"/>
@@ -2009,19 +2287,23 @@
       <c r="C128" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D128"/>
       <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="7">
         <v>19</v>
       </c>
-      <c r="B129" s="9"/>
+      <c r="B129" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C129" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D129"/>
+        <v>46</v>
+      </c>
       <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="7"/>
@@ -2029,8 +2311,9 @@
       <c r="C130" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D130"/>
       <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="7"/>
@@ -2038,8 +2321,9 @@
       <c r="C131" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D131"/>
       <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="7"/>
@@ -2047,8 +2331,9 @@
       <c r="C132" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D132"/>
       <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="7"/>
@@ -2056,8 +2341,9 @@
       <c r="C133" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D133"/>
       <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="7"/>
@@ -2065,8 +2351,9 @@
       <c r="C134" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D134"/>
       <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="7"/>
@@ -2074,19 +2361,23 @@
       <c r="C135" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D135"/>
       <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="7">
         <v>20</v>
       </c>
-      <c r="B136" s="9"/>
+      <c r="B136" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="C136" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D136"/>
+        <v>48</v>
+      </c>
       <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="7"/>
@@ -2094,8 +2385,9 @@
       <c r="C137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D137"/>
       <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="7"/>
@@ -2103,8 +2395,9 @@
       <c r="C138" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D138"/>
       <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="7"/>
@@ -2112,8 +2405,9 @@
       <c r="C139" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D139"/>
       <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="7"/>
@@ -2121,8 +2415,9 @@
       <c r="C140" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D140"/>
       <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="7"/>
@@ -2130,8 +2425,9 @@
       <c r="C141" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D141"/>
       <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="7"/>
@@ -2139,19 +2435,23 @@
       <c r="C142" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D142"/>
       <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="7">
         <v>21</v>
       </c>
-      <c r="B143" s="9"/>
+      <c r="B143" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="C143" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D143"/>
+        <v>50</v>
+      </c>
       <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" s="7"/>
@@ -2159,8 +2459,9 @@
       <c r="C144" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D144"/>
       <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="7"/>
@@ -2168,8 +2469,9 @@
       <c r="C145" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D145"/>
       <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="7"/>
@@ -2177,8 +2479,9 @@
       <c r="C146" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D146"/>
       <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="7"/>
@@ -2186,8 +2489,9 @@
       <c r="C147" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D147"/>
       <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="7"/>
@@ -2195,8 +2499,9 @@
       <c r="C148" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D148"/>
       <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="7"/>
@@ -2204,19 +2509,23 @@
       <c r="C149" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D149"/>
       <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" s="7">
         <v>22</v>
       </c>
-      <c r="B150" s="9"/>
+      <c r="B150" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="C150" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D150"/>
+        <v>52</v>
+      </c>
       <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="7"/>
@@ -2224,8 +2533,9 @@
       <c r="C151" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D151"/>
       <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="7"/>
@@ -2233,8 +2543,9 @@
       <c r="C152" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D152"/>
       <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="7"/>
@@ -2242,8 +2553,9 @@
       <c r="C153" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D153"/>
       <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="7"/>
@@ -2251,8 +2563,9 @@
       <c r="C154" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D154"/>
       <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="7"/>
@@ -2260,8 +2573,9 @@
       <c r="C155" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D155"/>
       <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="7"/>
@@ -2269,19 +2583,23 @@
       <c r="C156" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D156"/>
       <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="7">
         <v>23</v>
       </c>
-      <c r="B157" s="9"/>
+      <c r="B157" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="C157" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D157"/>
+        <v>54</v>
+      </c>
       <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="7"/>
@@ -2289,8 +2607,9 @@
       <c r="C158" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D158"/>
       <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="7"/>
@@ -2298,8 +2617,9 @@
       <c r="C159" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D159"/>
       <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="7"/>
@@ -2307,8 +2627,9 @@
       <c r="C160" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D160"/>
       <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="7"/>
@@ -2316,8 +2637,9 @@
       <c r="C161" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D161"/>
       <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="7"/>
@@ -2325,8 +2647,9 @@
       <c r="C162" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D162"/>
       <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="7"/>
@@ -2334,19 +2657,23 @@
       <c r="C163" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D163"/>
       <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="7">
         <v>24</v>
       </c>
-      <c r="B164" s="9"/>
+      <c r="B164" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="C164" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164"/>
+        <v>56</v>
+      </c>
       <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="7"/>
@@ -2354,8 +2681,9 @@
       <c r="C165" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D165"/>
       <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="7"/>
@@ -2363,8 +2691,9 @@
       <c r="C166" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D166"/>
       <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="7"/>
@@ -2372,8 +2701,9 @@
       <c r="C167" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D167"/>
       <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="7"/>
@@ -2381,8 +2711,9 @@
       <c r="C168" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D168"/>
       <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="7"/>
@@ -2390,8 +2721,9 @@
       <c r="C169" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D169"/>
       <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="7"/>
@@ -2399,19 +2731,23 @@
       <c r="C170" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D170"/>
       <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="7">
         <v>25</v>
       </c>
-      <c r="B171" s="8"/>
+      <c r="B171" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="C171" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D171"/>
+        <v>58</v>
+      </c>
       <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="7"/>
@@ -2419,8 +2755,9 @@
       <c r="C172" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D172"/>
       <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="7"/>
@@ -2428,8 +2765,9 @@
       <c r="C173" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D173"/>
       <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="7"/>
@@ -2437,8 +2775,9 @@
       <c r="C174" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D174"/>
       <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="7"/>
@@ -2446,8 +2785,9 @@
       <c r="C175" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D175"/>
       <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="7"/>
@@ -2455,8 +2795,9 @@
       <c r="C176" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D176"/>
       <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="A177" s="7"/>
@@ -2464,19 +2805,23 @@
       <c r="C177" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D177"/>
       <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="7">
         <v>26</v>
       </c>
-      <c r="B178" s="9"/>
+      <c r="B178" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C178" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D178"/>
+        <v>60</v>
+      </c>
       <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
       <c r="A179" s="7"/>
@@ -2484,8 +2829,9 @@
       <c r="C179" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D179"/>
       <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="7"/>
@@ -2493,8 +2839,9 @@
       <c r="C180" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D180"/>
       <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="7"/>
@@ -2502,8 +2849,9 @@
       <c r="C181" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D181"/>
       <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="7"/>
@@ -2511,8 +2859,9 @@
       <c r="C182" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D182"/>
       <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="7"/>
@@ -2520,8 +2869,9 @@
       <c r="C183" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D183"/>
       <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="7"/>
@@ -2529,19 +2879,23 @@
       <c r="C184" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D184"/>
       <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="7">
         <v>27</v>
       </c>
-      <c r="B185" s="9"/>
+      <c r="B185" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C185" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D185"/>
+        <v>62</v>
+      </c>
       <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="7"/>
@@ -2549,8 +2903,9 @@
       <c r="C186" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D186"/>
       <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="A187" s="7"/>
@@ -2558,8 +2913,9 @@
       <c r="C187" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D187"/>
       <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
       <c r="A188" s="7"/>
@@ -2567,8 +2923,9 @@
       <c r="C188" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D188"/>
       <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
       <c r="A189" s="7"/>
@@ -2576,8 +2933,9 @@
       <c r="C189" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D189"/>
       <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="7"/>
@@ -2585,8 +2943,9 @@
       <c r="C190" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D190"/>
       <c r="E190"/>
+      <c r="F190"/>
+      <c r="G190"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
       <c r="A191" s="7"/>
@@ -2594,19 +2953,23 @@
       <c r="C191" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D191"/>
       <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="A192" s="7">
         <v>28</v>
       </c>
-      <c r="B192" s="9"/>
+      <c r="B192" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="C192" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D192"/>
+        <v>64</v>
+      </c>
       <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="A193" s="7"/>
@@ -2614,8 +2977,9 @@
       <c r="C193" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D193"/>
       <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
       <c r="A194" s="7"/>
@@ -2623,8 +2987,9 @@
       <c r="C194" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D194"/>
       <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
       <c r="A195" s="7"/>
@@ -2632,8 +2997,9 @@
       <c r="C195" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D195"/>
       <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
       <c r="A196" s="7"/>
@@ -2641,8 +3007,9 @@
       <c r="C196" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D196"/>
       <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="A197" s="7"/>
@@ -2650,8 +3017,9 @@
       <c r="C197" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D197"/>
       <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="A198" s="7"/>
@@ -2659,19 +3027,23 @@
       <c r="C198" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D198"/>
       <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="7">
         <v>29</v>
       </c>
-      <c r="B199" s="8"/>
+      <c r="B199" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="C199" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D199"/>
+        <v>66</v>
+      </c>
       <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="7"/>
@@ -2679,8 +3051,9 @@
       <c r="C200" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D200"/>
       <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
       <c r="A201" s="7"/>
@@ -2688,8 +3061,9 @@
       <c r="C201" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D201"/>
       <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
       <c r="A202" s="7"/>
@@ -2697,8 +3071,9 @@
       <c r="C202" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D202"/>
       <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
       <c r="A203" s="7"/>
@@ -2706,8 +3081,9 @@
       <c r="C203" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D203"/>
       <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
       <c r="A204" s="7"/>
@@ -2715,8 +3091,9 @@
       <c r="C204" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D204"/>
       <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="7"/>
@@ -2724,19 +3101,23 @@
       <c r="C205" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D205"/>
       <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
       <c r="A206" s="7">
         <v>30</v>
       </c>
-      <c r="B206" s="9"/>
+      <c r="B206" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="C206" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D206"/>
+        <v>68</v>
+      </c>
       <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
       <c r="A207" s="7"/>
@@ -2744,8 +3125,9 @@
       <c r="C207" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D207"/>
       <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="7"/>
@@ -2753,8 +3135,9 @@
       <c r="C208" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D208"/>
       <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
       <c r="A209" s="7"/>
@@ -2762,8 +3145,9 @@
       <c r="C209" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D209"/>
       <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
       <c r="A210" s="7"/>
@@ -2771,8 +3155,9 @@
       <c r="C210" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D210"/>
       <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
       <c r="A211" s="7"/>
@@ -2780,8 +3165,9 @@
       <c r="C211" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D211"/>
       <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
       <c r="A212" s="7"/>
@@ -2789,19 +3175,23 @@
       <c r="C212" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D212"/>
       <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="A213" s="7">
         <v>31</v>
       </c>
-      <c r="B213" s="9"/>
+      <c r="B213" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="C213" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D213"/>
+        <v>70</v>
+      </c>
       <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
       <c r="A214" s="7"/>
@@ -2809,8 +3199,9 @@
       <c r="C214" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D214"/>
       <c r="E214"/>
+      <c r="F214"/>
+      <c r="G214"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="A215" s="7"/>
@@ -2818,8 +3209,9 @@
       <c r="C215" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D215"/>
       <c r="E215"/>
+      <c r="F215"/>
+      <c r="G215"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="A216" s="7"/>
@@ -2827,8 +3219,9 @@
       <c r="C216" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D216"/>
       <c r="E216"/>
+      <c r="F216"/>
+      <c r="G216"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
       <c r="A217" s="7"/>
@@ -2836,8 +3229,9 @@
       <c r="C217" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D217"/>
       <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
       <c r="A218" s="7"/>
@@ -2845,8 +3239,9 @@
       <c r="C218" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D218"/>
       <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
       <c r="A219" s="7"/>
@@ -2854,19 +3249,23 @@
       <c r="C219" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D219"/>
       <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
       <c r="A220" s="7">
         <v>32</v>
       </c>
-      <c r="B220" s="9"/>
+      <c r="B220" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="C220" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D220"/>
+        <v>72</v>
+      </c>
       <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
       <c r="A221" s="7"/>
@@ -2874,8 +3273,9 @@
       <c r="C221" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D221"/>
       <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
       <c r="A222" s="7"/>
@@ -2883,8 +3283,9 @@
       <c r="C222" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D222"/>
       <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
       <c r="A223" s="7"/>
@@ -2892,8 +3293,9 @@
       <c r="C223" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D223"/>
       <c r="E223"/>
+      <c r="F223"/>
+      <c r="G223"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
       <c r="A224" s="7"/>
@@ -2901,8 +3303,9 @@
       <c r="C224" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D224"/>
       <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
       <c r="A225" s="7"/>
@@ -2910,8 +3313,9 @@
       <c r="C225" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D225"/>
       <c r="E225"/>
+      <c r="F225"/>
+      <c r="G225"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
       <c r="A226" s="7"/>
@@ -2919,8 +3323,9 @@
       <c r="C226" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D226"/>
       <c r="E226"/>
+      <c r="F226"/>
+      <c r="G226"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -3000,6 +3405,31 @@
     <hyperlink r:id="rId5" ref="B31"/>
     <hyperlink r:id="rId6" ref="B38"/>
     <hyperlink r:id="rId7" ref="B45"/>
+    <hyperlink r:id="rId8" ref="B52"/>
+    <hyperlink r:id="rId9" ref="B59"/>
+    <hyperlink r:id="rId10" ref="B66"/>
+    <hyperlink r:id="rId11" ref="B73"/>
+    <hyperlink r:id="rId12" ref="B80"/>
+    <hyperlink r:id="rId13" ref="B87"/>
+    <hyperlink r:id="rId14" ref="B94"/>
+    <hyperlink r:id="rId15" ref="B101"/>
+    <hyperlink r:id="rId16" ref="B108"/>
+    <hyperlink r:id="rId17" ref="B115"/>
+    <hyperlink r:id="rId18" ref="B122"/>
+    <hyperlink r:id="rId19" ref="B129"/>
+    <hyperlink r:id="rId20" ref="B136"/>
+    <hyperlink r:id="rId21" ref="B143"/>
+    <hyperlink r:id="rId22" ref="B150"/>
+    <hyperlink r:id="rId23" ref="B157"/>
+    <hyperlink r:id="rId24" ref="B164"/>
+    <hyperlink r:id="rId25" ref="B171"/>
+    <hyperlink r:id="rId26" ref="B178"/>
+    <hyperlink r:id="rId27" ref="B185"/>
+    <hyperlink r:id="rId28" ref="B192"/>
+    <hyperlink r:id="rId29" ref="B199"/>
+    <hyperlink r:id="rId30" ref="B206"/>
+    <hyperlink r:id="rId31" ref="B213"/>
+    <hyperlink r:id="rId32" ref="B220"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/список.xlsx
+++ b/список.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">№
 пп</t>
@@ -233,6 +233,24 @@
   </si>
   <si>
     <t>ЦДО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">итого средняя оценка</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> кол-во 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> кол-во 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> кол-во 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> кол-во 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> кол-во 1</t>
   </si>
 </sst>
 </file>
@@ -240,9 +258,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -252,6 +270,13 @@
     <font>
       <b/>
       <sz val="15.000000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -275,8 +300,21 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12.000000"/>
+      <color theme="3" tint="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.000000"/>
+      <color theme="3" tint="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +324,11 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -319,52 +360,165 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="2" numFmtId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="2" numFmtId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="2" numFmtId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="2" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="7" fillId="0" borderId="3" numFmtId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="4" numFmtId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="5" numFmtId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="6" numFmtId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="7" numFmtId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="8" numFmtId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="9" numFmtId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="10" numFmtId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1487,9 +1641,6 @@
       <c r="C52" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="7"/>
@@ -1497,9 +1648,6 @@
       <c r="C53" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="7"/>
@@ -1507,9 +1655,6 @@
       <c r="C54" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="7"/>
@@ -1517,9 +1662,6 @@
       <c r="C55" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="7"/>
@@ -1527,9 +1669,6 @@
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="7"/>
@@ -1537,9 +1676,6 @@
       <c r="C57" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="7"/>
@@ -1547,9 +1683,6 @@
       <c r="C58" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="7">
@@ -1561,9 +1694,6 @@
       <c r="C59" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="7"/>
@@ -1571,9 +1701,6 @@
       <c r="C60" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="7"/>
@@ -1581,9 +1708,6 @@
       <c r="C61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="7"/>
@@ -1591,9 +1715,6 @@
       <c r="C62" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="7"/>
@@ -1601,9 +1722,6 @@
       <c r="C63" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="7"/>
@@ -1611,9 +1729,6 @@
       <c r="C64" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="7"/>
@@ -1621,9 +1736,6 @@
       <c r="C65" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="7">
@@ -1635,9 +1747,6 @@
       <c r="C66" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="7"/>
@@ -1645,9 +1754,6 @@
       <c r="C67" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="7"/>
@@ -1655,9 +1761,6 @@
       <c r="C68" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="7"/>
@@ -1665,9 +1768,6 @@
       <c r="C69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="7"/>
@@ -1675,9 +1775,6 @@
       <c r="C70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="7"/>
@@ -1685,9 +1782,6 @@
       <c r="C71" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="7"/>
@@ -1695,9 +1789,6 @@
       <c r="C72" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="7">
@@ -1709,9 +1800,6 @@
       <c r="C73" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="7"/>
@@ -1719,9 +1807,6 @@
       <c r="C74" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="7"/>
@@ -1729,9 +1814,6 @@
       <c r="C75" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="7"/>
@@ -1739,9 +1821,6 @@
       <c r="C76" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="7"/>
@@ -1749,9 +1828,6 @@
       <c r="C77" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="7"/>
@@ -1759,9 +1835,6 @@
       <c r="C78" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="7"/>
@@ -1769,9 +1842,6 @@
       <c r="C79" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="7">
@@ -1783,9 +1853,6 @@
       <c r="C80" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="7"/>
@@ -1793,9 +1860,6 @@
       <c r="C81" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="7"/>
@@ -1803,9 +1867,6 @@
       <c r="C82" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="7"/>
@@ -1813,9 +1874,6 @@
       <c r="C83" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="7"/>
@@ -1823,9 +1881,6 @@
       <c r="C84" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="7"/>
@@ -1833,9 +1888,6 @@
       <c r="C85" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="7"/>
@@ -1843,9 +1895,6 @@
       <c r="C86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="7">
@@ -1857,9 +1906,6 @@
       <c r="C87" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="7"/>
@@ -1867,9 +1913,6 @@
       <c r="C88" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="7"/>
@@ -1877,9 +1920,6 @@
       <c r="C89" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="7"/>
@@ -1887,9 +1927,6 @@
       <c r="C90" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="7"/>
@@ -1897,9 +1934,6 @@
       <c r="C91" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="7"/>
@@ -1907,9 +1941,6 @@
       <c r="C92" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="7"/>
@@ -1917,9 +1948,6 @@
       <c r="C93" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="7">
@@ -1931,9 +1959,6 @@
       <c r="C94" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="7"/>
@@ -1941,9 +1966,6 @@
       <c r="C95" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="7"/>
@@ -1951,9 +1973,6 @@
       <c r="C96" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="7"/>
@@ -1961,9 +1980,6 @@
       <c r="C97" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="7"/>
@@ -1971,9 +1987,6 @@
       <c r="C98" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="7"/>
@@ -1981,9 +1994,6 @@
       <c r="C99" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="7"/>
@@ -1991,9 +2001,6 @@
       <c r="C100" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="7">
@@ -2005,9 +2012,6 @@
       <c r="C101" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="7"/>
@@ -2015,9 +2019,6 @@
       <c r="C102" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="7"/>
@@ -2025,9 +2026,6 @@
       <c r="C103" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="7"/>
@@ -2035,9 +2033,6 @@
       <c r="C104" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="7"/>
@@ -2045,9 +2040,6 @@
       <c r="C105" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="7"/>
@@ -2055,9 +2047,6 @@
       <c r="C106" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="7"/>
@@ -2065,9 +2054,6 @@
       <c r="C107" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="7">
@@ -2079,9 +2065,6 @@
       <c r="C108" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="7"/>
@@ -2089,9 +2072,6 @@
       <c r="C109" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="7"/>
@@ -2099,9 +2079,6 @@
       <c r="C110" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="7"/>
@@ -2109,9 +2086,6 @@
       <c r="C111" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="7"/>
@@ -2119,9 +2093,6 @@
       <c r="C112" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="7"/>
@@ -2129,9 +2100,6 @@
       <c r="C113" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="7"/>
@@ -2139,9 +2107,6 @@
       <c r="C114" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="7">
@@ -2153,9 +2118,6 @@
       <c r="C115" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="7"/>
@@ -2163,9 +2125,6 @@
       <c r="C116" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="7"/>
@@ -2173,9 +2132,6 @@
       <c r="C117" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="7"/>
@@ -2183,9 +2139,6 @@
       <c r="C118" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="7"/>
@@ -2193,9 +2146,6 @@
       <c r="C119" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="7"/>
@@ -2203,9 +2153,6 @@
       <c r="C120" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="7"/>
@@ -2213,9 +2160,6 @@
       <c r="C121" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="7">
@@ -2227,9 +2171,6 @@
       <c r="C122" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="7"/>
@@ -2237,9 +2178,6 @@
       <c r="C123" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="7"/>
@@ -2247,9 +2185,6 @@
       <c r="C124" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="7"/>
@@ -2257,9 +2192,6 @@
       <c r="C125" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="7"/>
@@ -2267,9 +2199,6 @@
       <c r="C126" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="7"/>
@@ -2277,9 +2206,6 @@
       <c r="C127" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="7"/>
@@ -2287,9 +2213,6 @@
       <c r="C128" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="7">
@@ -2301,9 +2224,6 @@
       <c r="C129" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="7"/>
@@ -2311,9 +2231,6 @@
       <c r="C130" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="7"/>
@@ -2321,9 +2238,6 @@
       <c r="C131" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="7"/>
@@ -2331,9 +2245,6 @@
       <c r="C132" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="7"/>
@@ -2341,9 +2252,6 @@
       <c r="C133" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="7"/>
@@ -2351,9 +2259,6 @@
       <c r="C134" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="7"/>
@@ -2361,9 +2266,6 @@
       <c r="C135" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="7">
@@ -2375,9 +2277,6 @@
       <c r="C136" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E136"/>
-      <c r="F136"/>
-      <c r="G136"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="7"/>
@@ -2385,9 +2284,6 @@
       <c r="C137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="7"/>
@@ -2395,9 +2291,6 @@
       <c r="C138" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="7"/>
@@ -2405,9 +2298,6 @@
       <c r="C139" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="7"/>
@@ -2415,9 +2305,6 @@
       <c r="C140" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E140"/>
-      <c r="F140"/>
-      <c r="G140"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="7"/>
@@ -2425,9 +2312,6 @@
       <c r="C141" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E141"/>
-      <c r="F141"/>
-      <c r="G141"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="7"/>
@@ -2435,9 +2319,6 @@
       <c r="C142" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="7">
@@ -2449,9 +2330,6 @@
       <c r="C143" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" s="7"/>
@@ -2459,9 +2337,6 @@
       <c r="C144" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="7"/>
@@ -2469,9 +2344,6 @@
       <c r="C145" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="7"/>
@@ -2479,9 +2351,6 @@
       <c r="C146" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="7"/>
@@ -2489,9 +2358,6 @@
       <c r="C147" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E147"/>
-      <c r="F147"/>
-      <c r="G147"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="7"/>
@@ -2499,9 +2365,6 @@
       <c r="C148" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="7"/>
@@ -2509,9 +2372,6 @@
       <c r="C149" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E149"/>
-      <c r="F149"/>
-      <c r="G149"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" s="7">
@@ -2523,9 +2383,6 @@
       <c r="C150" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E150"/>
-      <c r="F150"/>
-      <c r="G150"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="7"/>
@@ -2533,9 +2390,6 @@
       <c r="C151" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="7"/>
@@ -2543,9 +2397,6 @@
       <c r="C152" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="7"/>
@@ -2553,9 +2404,6 @@
       <c r="C153" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E153"/>
-      <c r="F153"/>
-      <c r="G153"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="7"/>
@@ -2563,9 +2411,6 @@
       <c r="C154" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E154"/>
-      <c r="F154"/>
-      <c r="G154"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="7"/>
@@ -2573,9 +2418,6 @@
       <c r="C155" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E155"/>
-      <c r="F155"/>
-      <c r="G155"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="7"/>
@@ -2583,9 +2425,6 @@
       <c r="C156" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="7">
@@ -2597,9 +2436,6 @@
       <c r="C157" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="7"/>
@@ -2607,9 +2443,6 @@
       <c r="C158" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="7"/>
@@ -2617,9 +2450,6 @@
       <c r="C159" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="7"/>
@@ -2627,9 +2457,6 @@
       <c r="C160" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="7"/>
@@ -2637,9 +2464,6 @@
       <c r="C161" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="7"/>
@@ -2647,9 +2471,6 @@
       <c r="C162" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E162"/>
-      <c r="F162"/>
-      <c r="G162"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="7"/>
@@ -2657,9 +2478,6 @@
       <c r="C163" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E163"/>
-      <c r="F163"/>
-      <c r="G163"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="7">
@@ -2671,9 +2489,6 @@
       <c r="C164" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E164"/>
-      <c r="F164"/>
-      <c r="G164"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="7"/>
@@ -2681,9 +2496,6 @@
       <c r="C165" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E165"/>
-      <c r="F165"/>
-      <c r="G165"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="7"/>
@@ -2691,9 +2503,6 @@
       <c r="C166" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E166"/>
-      <c r="F166"/>
-      <c r="G166"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="7"/>
@@ -2701,9 +2510,6 @@
       <c r="C167" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E167"/>
-      <c r="F167"/>
-      <c r="G167"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="7"/>
@@ -2711,9 +2517,6 @@
       <c r="C168" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E168"/>
-      <c r="F168"/>
-      <c r="G168"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="7"/>
@@ -2721,9 +2524,6 @@
       <c r="C169" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E169"/>
-      <c r="F169"/>
-      <c r="G169"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="7"/>
@@ -2731,9 +2531,6 @@
       <c r="C170" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E170"/>
-      <c r="F170"/>
-      <c r="G170"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="7">
@@ -2745,9 +2542,6 @@
       <c r="C171" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E171"/>
-      <c r="F171"/>
-      <c r="G171"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="7"/>
@@ -2755,9 +2549,6 @@
       <c r="C172" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E172"/>
-      <c r="F172"/>
-      <c r="G172"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="7"/>
@@ -2765,9 +2556,6 @@
       <c r="C173" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E173"/>
-      <c r="F173"/>
-      <c r="G173"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="7"/>
@@ -2775,9 +2563,6 @@
       <c r="C174" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E174"/>
-      <c r="F174"/>
-      <c r="G174"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="7"/>
@@ -2785,9 +2570,6 @@
       <c r="C175" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E175"/>
-      <c r="F175"/>
-      <c r="G175"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="7"/>
@@ -2795,9 +2577,6 @@
       <c r="C176" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E176"/>
-      <c r="F176"/>
-      <c r="G176"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="A177" s="7"/>
@@ -2805,9 +2584,6 @@
       <c r="C177" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E177"/>
-      <c r="F177"/>
-      <c r="G177"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="7">
@@ -2819,9 +2595,6 @@
       <c r="C178" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E178"/>
-      <c r="F178"/>
-      <c r="G178"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
       <c r="A179" s="7"/>
@@ -2829,9 +2602,6 @@
       <c r="C179" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E179"/>
-      <c r="F179"/>
-      <c r="G179"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="7"/>
@@ -2839,9 +2609,6 @@
       <c r="C180" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E180"/>
-      <c r="F180"/>
-      <c r="G180"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="7"/>
@@ -2849,9 +2616,6 @@
       <c r="C181" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E181"/>
-      <c r="F181"/>
-      <c r="G181"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="7"/>
@@ -2859,9 +2623,6 @@
       <c r="C182" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E182"/>
-      <c r="F182"/>
-      <c r="G182"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="7"/>
@@ -2869,9 +2630,6 @@
       <c r="C183" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E183"/>
-      <c r="F183"/>
-      <c r="G183"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="7"/>
@@ -2879,9 +2637,6 @@
       <c r="C184" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E184"/>
-      <c r="F184"/>
-      <c r="G184"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="7">
@@ -2893,9 +2648,6 @@
       <c r="C185" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E185"/>
-      <c r="F185"/>
-      <c r="G185"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="7"/>
@@ -2903,9 +2655,6 @@
       <c r="C186" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E186"/>
-      <c r="F186"/>
-      <c r="G186"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="A187" s="7"/>
@@ -2913,9 +2662,6 @@
       <c r="C187" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E187"/>
-      <c r="F187"/>
-      <c r="G187"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
       <c r="A188" s="7"/>
@@ -2923,9 +2669,6 @@
       <c r="C188" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E188"/>
-      <c r="F188"/>
-      <c r="G188"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
       <c r="A189" s="7"/>
@@ -2933,9 +2676,6 @@
       <c r="C189" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E189"/>
-      <c r="F189"/>
-      <c r="G189"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="7"/>
@@ -2943,9 +2683,6 @@
       <c r="C190" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E190"/>
-      <c r="F190"/>
-      <c r="G190"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
       <c r="A191" s="7"/>
@@ -2953,9 +2690,6 @@
       <c r="C191" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E191"/>
-      <c r="F191"/>
-      <c r="G191"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="A192" s="7">
@@ -2967,9 +2701,6 @@
       <c r="C192" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E192"/>
-      <c r="F192"/>
-      <c r="G192"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="A193" s="7"/>
@@ -2977,9 +2708,6 @@
       <c r="C193" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E193"/>
-      <c r="F193"/>
-      <c r="G193"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
       <c r="A194" s="7"/>
@@ -2987,9 +2715,6 @@
       <c r="C194" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E194"/>
-      <c r="F194"/>
-      <c r="G194"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
       <c r="A195" s="7"/>
@@ -2997,9 +2722,6 @@
       <c r="C195" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E195"/>
-      <c r="F195"/>
-      <c r="G195"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
       <c r="A196" s="7"/>
@@ -3007,9 +2729,6 @@
       <c r="C196" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E196"/>
-      <c r="F196"/>
-      <c r="G196"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="A197" s="7"/>
@@ -3017,9 +2736,6 @@
       <c r="C197" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E197"/>
-      <c r="F197"/>
-      <c r="G197"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="A198" s="7"/>
@@ -3027,9 +2743,6 @@
       <c r="C198" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E198"/>
-      <c r="F198"/>
-      <c r="G198"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="7">
@@ -3041,9 +2754,6 @@
       <c r="C199" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E199"/>
-      <c r="F199"/>
-      <c r="G199"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="7"/>
@@ -3051,9 +2761,6 @@
       <c r="C200" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E200"/>
-      <c r="F200"/>
-      <c r="G200"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
       <c r="A201" s="7"/>
@@ -3061,9 +2768,6 @@
       <c r="C201" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E201"/>
-      <c r="F201"/>
-      <c r="G201"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
       <c r="A202" s="7"/>
@@ -3071,9 +2775,6 @@
       <c r="C202" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
       <c r="A203" s="7"/>
@@ -3081,9 +2782,6 @@
       <c r="C203" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
       <c r="A204" s="7"/>
@@ -3091,9 +2789,6 @@
       <c r="C204" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E204"/>
-      <c r="F204"/>
-      <c r="G204"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="7"/>
@@ -3101,9 +2796,6 @@
       <c r="C205" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E205"/>
-      <c r="F205"/>
-      <c r="G205"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
       <c r="A206" s="7">
@@ -3115,9 +2807,6 @@
       <c r="C206" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E206"/>
-      <c r="F206"/>
-      <c r="G206"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
       <c r="A207" s="7"/>
@@ -3125,9 +2814,6 @@
       <c r="C207" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E207"/>
-      <c r="F207"/>
-      <c r="G207"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="7"/>
@@ -3135,9 +2821,6 @@
       <c r="C208" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E208"/>
-      <c r="F208"/>
-      <c r="G208"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
       <c r="A209" s="7"/>
@@ -3145,9 +2828,6 @@
       <c r="C209" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E209"/>
-      <c r="F209"/>
-      <c r="G209"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
       <c r="A210" s="7"/>
@@ -3155,9 +2835,6 @@
       <c r="C210" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E210"/>
-      <c r="F210"/>
-      <c r="G210"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
       <c r="A211" s="7"/>
@@ -3165,9 +2842,6 @@
       <c r="C211" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E211"/>
-      <c r="F211"/>
-      <c r="G211"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
       <c r="A212" s="7"/>
@@ -3175,9 +2849,6 @@
       <c r="C212" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E212"/>
-      <c r="F212"/>
-      <c r="G212"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="A213" s="7">
@@ -3189,9 +2860,6 @@
       <c r="C213" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E213"/>
-      <c r="F213"/>
-      <c r="G213"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
       <c r="A214" s="7"/>
@@ -3199,9 +2867,6 @@
       <c r="C214" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E214"/>
-      <c r="F214"/>
-      <c r="G214"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="A215" s="7"/>
@@ -3209,9 +2874,6 @@
       <c r="C215" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E215"/>
-      <c r="F215"/>
-      <c r="G215"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="A216" s="7"/>
@@ -3219,9 +2881,6 @@
       <c r="C216" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E216"/>
-      <c r="F216"/>
-      <c r="G216"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
       <c r="A217" s="7"/>
@@ -3229,9 +2888,6 @@
       <c r="C217" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E217"/>
-      <c r="F217"/>
-      <c r="G217"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
       <c r="A218" s="7"/>
@@ -3239,9 +2895,6 @@
       <c r="C218" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E218"/>
-      <c r="F218"/>
-      <c r="G218"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
       <c r="A219" s="7"/>
@@ -3249,9 +2902,6 @@
       <c r="C219" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E219"/>
-      <c r="F219"/>
-      <c r="G219"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
       <c r="A220" s="7">
@@ -3263,9 +2913,6 @@
       <c r="C220" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E220"/>
-      <c r="F220"/>
-      <c r="G220"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
       <c r="A221" s="7"/>
@@ -3273,9 +2920,6 @@
       <c r="C221" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E221"/>
-      <c r="F221"/>
-      <c r="G221"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
       <c r="A222" s="7"/>
@@ -3283,9 +2927,6 @@
       <c r="C222" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E222"/>
-      <c r="F222"/>
-      <c r="G222"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
       <c r="A223" s="7"/>
@@ -3293,9 +2934,6 @@
       <c r="C223" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E223"/>
-      <c r="F223"/>
-      <c r="G223"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
       <c r="A224" s="7"/>
@@ -3303,9 +2941,6 @@
       <c r="C224" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E224"/>
-      <c r="F224"/>
-      <c r="G224"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
       <c r="A225" s="7"/>
@@ -3313,9 +2948,6 @@
       <c r="C225" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E225"/>
-      <c r="F225"/>
-      <c r="G225"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
       <c r="A226" s="7"/>
@@ -3323,12 +2955,86 @@
       <c r="C226" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E226"/>
-      <c r="F226"/>
-      <c r="G226"/>
+    </row>
+    <row r="227" s="12" customFormat="1" ht="14.25">
+      <c r="A227" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B227" s="14"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="16"/>
+      <c r="E227" s="16"/>
+      <c r="F227" s="16"/>
+      <c r="G227" s="16"/>
+    </row>
+    <row r="228" s="12" customFormat="1" ht="14.25">
+      <c r="A228" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B228" s="18"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="16"/>
+      <c r="E228" s="16"/>
+      <c r="F228" s="16"/>
+      <c r="G228" s="16"/>
+    </row>
+    <row r="229" s="12" customFormat="1" ht="14.25">
+      <c r="A229" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B229" s="18"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="16"/>
+      <c r="E229" s="16"/>
+      <c r="F229" s="16"/>
+      <c r="G229" s="16"/>
+    </row>
+    <row r="230" s="12" customFormat="1" ht="14.25">
+      <c r="A230" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B230" s="18"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="16"/>
+      <c r="E230" s="16"/>
+      <c r="F230" s="16"/>
+      <c r="G230" s="16"/>
+    </row>
+    <row r="231" s="12" customFormat="1" ht="14.25">
+      <c r="A231" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B231" s="18"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="16"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="16"/>
+    </row>
+    <row r="232" s="12" customFormat="1" ht="14.25">
+      <c r="A232" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B232" s="18"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
+      <c r="G232" s="16"/>
+    </row>
+    <row r="233" s="12" customFormat="1" ht="14.25">
+      <c r="A233" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" s="21"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="16"/>
+      <c r="G233" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="74">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -3396,6 +3102,13 @@
     <mergeCell ref="B213:B219"/>
     <mergeCell ref="A220:A226"/>
     <mergeCell ref="B220:B226"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A233:C233"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B3"/>
